--- a/python/config.xlsx
+++ b/python/config.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F513A97-491A-4494-ADD6-E9E15A625B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7357329-3982-4516-9F28-AF0F16416127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信号名" sheetId="1" r:id="rId1"/>
     <sheet name="运算符号" sheetId="2" r:id="rId2"/>
     <sheet name="条件" sheetId="3" r:id="rId3"/>
-    <sheet name="TImeOut" sheetId="4" r:id="rId4"/>
+    <sheet name="TimeOut" sheetId="4" r:id="rId4"/>
     <sheet name="EVT" sheetId="5" r:id="rId5"/>
     <sheet name="Condition宏定义" sheetId="6" r:id="rId6"/>
     <sheet name="常量宏定义" sheetId="7" r:id="rId7"/>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1678,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1D1207-510C-49D8-9B1E-ED39AAD8BCA7}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2205,7 +2205,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2360,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/python/config.xlsx
+++ b/python/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7357329-3982-4516-9F28-AF0F16416127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB071BC-C775-4B7E-A17D-A8B38589243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="627" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信号名" sheetId="1" r:id="rId1"/>
@@ -257,10 +257,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0xFF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LGL_SEE_REQ2NO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -286,273 +282,278 @@
     <t>PRM_U8POWERSTS_EQ_2</t>
   </si>
   <si>
+    <t>EEP_LOGO_ENABLE_FLAG_EQ_1</t>
+  </si>
+  <si>
+    <t>PPL_BOOLPOSNLAMPSTS_EQ_1</t>
+  </si>
+  <si>
+    <t>PLB_U8LBSTS_EQ_1</t>
+  </si>
+  <si>
+    <t>LGL_SEE_REQ2NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_DLC_TIMEOUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_PRM_TIMEOUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_EEP_TIMEOUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_SEE_TIMEOUT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDCSEEDSIGNAL_CHANGETO_0</t>
+  </si>
+  <si>
+    <t>BDCWLCMSIGNAL_EQ_0</t>
+  </si>
+  <si>
+    <t>BDCSEEDSIGNAL_EQ_0</t>
+  </si>
+  <si>
+    <t>PPL_BOOLPOSNLAMPSTS_EQ_0</t>
+  </si>
+  <si>
+    <t>PRM_U8POWERSTS_CHANGETO_0</t>
+  </si>
+  <si>
+    <t>EEP_LOGO_ENABLE_FLAG_EQ_0</t>
+  </si>
+  <si>
+    <t>ConditionDefine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTime(LGL_DLC_1500ms_TimeOut)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTime(LGL_PRM_350ms_TimeOut)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTime(LGL_EEP_350ms_TimeOut)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTime(LGL_SEE_350ms_TimeOut)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_Normal_OFF1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_Normal_OFF2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_TIMEFLAGNUM_EQ_0</t>
+  </si>
+  <si>
+    <t>LGL_TIMEFLAGNUM_EQ_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏定义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_SEE_OFF</t>
+  </si>
+  <si>
+    <t>LGL_EEP_OFF</t>
+  </si>
+  <si>
+    <t>LGL_PRM_OFF</t>
+  </si>
+  <si>
+    <t>LGL_DLC_OFF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEL_NO_REQ</t>
+  </si>
+  <si>
+    <t>SEE_NO_REQ</t>
+  </si>
+  <si>
+    <t>VCU_GEAR_P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP_AUTO_HOLD</t>
+  </si>
+  <si>
+    <t>POL_STS_ON</t>
+  </si>
+  <si>
+    <t>POL_STS_OFF</t>
+  </si>
+  <si>
+    <t>LBL_STS_ON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBL_STS_OFF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRM_PWR_ON</t>
+  </si>
+  <si>
+    <t>EEP_LGL_ENABLE</t>
+  </si>
+  <si>
+    <t>EEP_LGL_DISABLE</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counter1500ms</t>
+  </si>
+  <si>
+    <t>Counter350ms</t>
+  </si>
+  <si>
+    <t>PRM_PWR_OFF</t>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150U</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35U</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_ON()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_OFF()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESPAUTOHOLDACTVSTS_EQ_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESPAUTOHOLDACTVSTS_EQ_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCUGEARPOSN_EQ_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCUGEARPOSN_EQ_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTimer(LGL_DLC_1500ms_TimeOut,Counter1500ms)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTimer(LGL_PRM_350ms_TimeOut,Counter350ms)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTimer(LGL_EEP_350ms_TimeOut,Counter350ms)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTimer(LGL_SEE_350ms_TimeOut,Counter350ms)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT_flag-&gt;LGL_TimeOutFlagNum--</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Bit_BDC_FrntLogLampCmd(OFF)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_Bit_BDC_FrntLogLampCmd(ON)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT_flag-&gt;LGL_TimeOutFlagNum++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_uint8_FrntLogLamp(OFF)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set_uint8_FrntLogLamp(ON)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTimer(Flag,Time)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Timer(Time, &amp;EVT_flag-&gt;TimeOutFlag[Flag])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTime(Flag)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT_flag-&gt;TimeOutFlag[Flag] = false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>DLC_U8TURNLIGHTTWICE_CHANGE_0XFF</t>
-  </si>
-  <si>
-    <t>EEP_LOGO_ENABLE_FLAG_EQ_1</t>
-  </si>
-  <si>
-    <t>PPL_BOOLPOSNLAMPSTS_EQ_1</t>
-  </si>
-  <si>
-    <t>PLB_U8LBSTS_EQ_1</t>
-  </si>
-  <si>
-    <t>LGL_SEE_REQ2NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_DLC_TIMEOUT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_PRM_TIMEOUT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_EEP_TIMEOUT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_SEE_TIMEOUT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BDCSEEDSIGNAL_CHANGETO_0</t>
-  </si>
-  <si>
-    <t>BDCWLCMSIGNAL_EQ_0</t>
-  </si>
-  <si>
-    <t>BDCSEEDSIGNAL_EQ_0</t>
-  </si>
-  <si>
-    <t>PPL_BOOLPOSNLAMPSTS_EQ_0</t>
-  </si>
-  <si>
-    <t>PRM_U8POWERSTS_CHANGETO_0</t>
-  </si>
-  <si>
-    <t>EEP_LOGO_ENABLE_FLAG_EQ_0</t>
-  </si>
-  <si>
-    <t>ConditionDefine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delTime(LGL_DLC_1500ms_TimeOut)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delTime(LGL_PRM_350ms_TimeOut)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delTime(LGL_EEP_350ms_TimeOut)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delTime(LGL_SEE_350ms_TimeOut)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_Normal_OFF1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_Normal_OFF2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_TIMEFLAGNUM_EQ_0</t>
-  </si>
-  <si>
-    <t>LGL_TIMEFLAGNUM_EQ_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>符号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宏定义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_SEE_OFF</t>
-  </si>
-  <si>
-    <t>LGL_EEP_OFF</t>
-  </si>
-  <si>
-    <t>LGL_PRM_OFF</t>
-  </si>
-  <si>
-    <t>LGL_DLC_OFF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEL_NO_REQ</t>
-  </si>
-  <si>
-    <t>SEE_NO_REQ</t>
-  </si>
-  <si>
-    <t>VCU_GEAR_P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESP_AUTO_HOLD</t>
-  </si>
-  <si>
-    <t>POL_STS_ON</t>
-  </si>
-  <si>
-    <t>POL_STS_OFF</t>
-  </si>
-  <si>
-    <t>LBL_STS_ON</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LBL_STS_OFF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRM_PWR_ON</t>
-  </si>
-  <si>
-    <t>EEP_LGL_ENABLE</t>
-  </si>
-  <si>
-    <t>EEP_LGL_DISABLE</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>OFF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Counter1500ms</t>
-  </si>
-  <si>
-    <t>Counter350ms</t>
-  </si>
-  <si>
-    <t>PRM_PWR_OFF</t>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150U</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35U</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_ON()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGL_OFF()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESPAUTOHOLDACTVSTS_EQ_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESPAUTOHOLDACTVSTS_EQ_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCUGEARPOSN_EQ_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCUGEARPOSN_EQ_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addTimer(LGL_DLC_1500ms_TimeOut,Counter1500ms)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addTimer(LGL_PRM_350ms_TimeOut,Counter350ms)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addTimer(LGL_EEP_350ms_TimeOut,Counter350ms)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addTimer(LGL_SEE_350ms_TimeOut,Counter350ms)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT_flag-&gt;LGL_TimeOutFlagNum--</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set_Bit_BDC_FrntLogLampCmd(OFF)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set_Bit_BDC_FrntLogLampCmd(ON)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT_flag-&gt;LGL_TimeOutFlagNum++</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set_uint8_FrntLogLamp(OFF)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set_uint8_FrntLogLamp(ON)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addTimer(Flag,Time)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add_Timer(Time, &amp;EVT_flag-&gt;TimeOutFlag[Flag])</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delTime(Flag)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT_flag-&gt;TimeOutFlag[Flag] = false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -895,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -910,7 +911,7 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1009,7 +1010,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1020,10 +1021,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1094,17 +1095,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1120B1-C00A-4D1D-97EB-94F457F81FBD}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" customWidth="1"/>
     <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1121,7 +1123,7 @@
         <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E26" si="0">UPPER(_xlfn.TEXTJOIN("_",TRUE,A3:C3))</f>
@@ -1222,7 +1224,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -1603,7 +1605,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1632,7 +1634,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1643,7 +1645,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1654,7 +1656,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,7 +1667,7 @@
         <v>150</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1678,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1D1207-510C-49D8-9B1E-ED39AAD8BCA7}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1718,7 +1720,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,10 +1728,10 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1737,10 +1739,10 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1748,16 +1750,16 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,16 +1767,16 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1782,16 +1784,16 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1799,16 +1801,16 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1816,16 +1818,16 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
         <v>66</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1833,13 +1835,13 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1847,10 +1849,10 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1858,165 +1860,166 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" t="s">
+        <v>119</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>61</v>
+      </c>
+      <c r="R17" t="s">
         <v>87</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" t="s">
-        <v>124</v>
-      </c>
-      <c r="I17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" t="s">
-        <v>62</v>
-      </c>
-      <c r="L17" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" t="s">
-        <v>121</v>
-      </c>
-      <c r="O17" t="s">
-        <v>62</v>
-      </c>
-      <c r="P17" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>62</v>
-      </c>
-      <c r="R17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" t="s">
         <v>77</v>
       </c>
-      <c r="G18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" t="s">
+        <v>119</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="s">
         <v>79</v>
       </c>
-      <c r="K18" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N18" t="s">
-        <v>121</v>
-      </c>
-      <c r="O18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" t="s">
-        <v>81</v>
-      </c>
       <c r="Q18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -2060,7 +2063,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2191,7 +2194,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2215,138 +2218,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
         <v>112</v>
-      </c>
-      <c r="B17" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2357,10 +2360,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633A9E27-0015-41EE-AA52-D8A38897C512}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2368,58 +2371,65 @@
     <col min="1" max="1" width="51.33203125" customWidth="1"/>
     <col min="2" max="2" width="78.5546875" customWidth="1"/>
     <col min="3" max="3" width="58.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>135</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
         <v>130</v>
       </c>
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>137</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/python/config.xlsx
+++ b/python/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB071BC-C775-4B7E-A17D-A8B38589243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5367A451-17D6-492A-8047-75D6DF04E07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="627" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信号名" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="143">
   <si>
     <t>BdcWlcmsignal</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -554,6 +554,14 @@
   </si>
   <si>
     <t>0xff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPL_BOOLPOSNLAMPSTS_EQ_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDCWLCMSIGNAL_EQ_0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -897,7 +905,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1095,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1120B1-C00A-4D1D-97EB-94F457F81FBD}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1680,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1D1207-510C-49D8-9B1E-ED39AAD8BCA7}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1767,7 @@
         <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1923,7 +1931,7 @@
         <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
         <v>61</v>
@@ -2363,7 +2371,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/python/config.xlsx
+++ b/python/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5367A451-17D6-492A-8047-75D6DF04E07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E49F7B-23C2-47FA-AA67-14276BB4D019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信号名" sheetId="1" r:id="rId1"/>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1688,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1D1207-510C-49D8-9B1E-ED39AAD8BCA7}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2370,7 +2370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633A9E27-0015-41EE-AA52-D8A38897C512}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/python/config.xlsx
+++ b/python/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E49F7B-23C2-47FA-AA67-14276BB4D019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F3C2C4-E3B4-4C5C-9F4A-2543F4D4993E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信号名" sheetId="1" r:id="rId1"/>
@@ -333,22 +333,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>delTime(LGL_DLC_1500ms_TimeOut)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delTime(LGL_PRM_350ms_TimeOut)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delTime(LGL_EEP_350ms_TimeOut)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delTime(LGL_SEE_350ms_TimeOut)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LGL_Normal_OFF1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -357,13 +341,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LGL_TIMEFLAGNUM_EQ_0</t>
-  </si>
-  <si>
-    <t>LGL_TIMEFLAGNUM_EQ_0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>符号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -541,10 +518,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>delTime(Flag)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT_flag-&gt;TimeOutFlag[Flag] = false</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -562,6 +535,34 @@
   </si>
   <si>
     <t>BDCWLCMSIGNAL_EQ_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMEFLAGNUM_EQ_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMEFLAGNUM_EQ_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTimer(Flag)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTimer(LGL_DLC_1500ms_TimeOut)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTimer(LGL_PRM_350ms_TimeOut)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTimer(LGL_EEP_350ms_TimeOut)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTimer(LGL_SEE_350ms_TimeOut)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -919,7 +920,7 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1018,7 +1019,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1029,10 +1030,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1104,7 +1105,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1233,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -1642,7 +1643,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,7 +1654,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,7 +1665,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,7 +1676,7 @@
         <v>150</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1689,7 +1690,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1737,7 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
         <v>63</v>
@@ -1747,7 +1748,7 @@
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
         <v>64</v>
@@ -1758,16 +1759,16 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
         <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,10 +1776,10 @@
         <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
         <v>61</v>
@@ -1792,10 +1793,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
         <v>61</v>
@@ -1809,10 +1810,10 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
         <v>61</v>
@@ -1826,7 +1827,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
         <v>65</v>
@@ -1843,13 +1844,13 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
         <v>117</v>
       </c>
-      <c r="C9" t="s">
-        <v>123</v>
-      </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1857,7 +1858,7 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -1868,7 +1869,7 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D11" t="s">
         <v>65</v>
@@ -1879,7 +1880,7 @@
         <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
         <v>74</v>
@@ -1890,7 +1891,7 @@
         <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,7 +1899,7 @@
         <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,7 +1907,7 @@
         <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,15 +1915,15 @@
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
         <v>76</v>
@@ -1931,13 +1932,13 @@
         <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
         <v>61</v>
       </c>
       <c r="H17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I17" t="s">
         <v>61</v>
@@ -1955,7 +1956,7 @@
         <v>61</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O17" t="s">
         <v>61</v>
@@ -1967,15 +1968,15 @@
         <v>61</v>
       </c>
       <c r="R17" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
         <v>76</v>
@@ -1990,7 +1991,7 @@
         <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I18" t="s">
         <v>61</v>
@@ -2008,7 +2009,7 @@
         <v>61</v>
       </c>
       <c r="N18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="O18" t="s">
         <v>61</v>
@@ -2020,7 +2021,7 @@
         <v>61</v>
       </c>
       <c r="R18" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2060,7 +2061,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2202,7 +2203,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2229,135 +2230,135 @@
         <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2372,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2384,60 +2385,60 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/python/config.xlsx
+++ b/python/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F3C2C4-E3B4-4C5C-9F4A-2543F4D4993E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A284A335-03D1-436D-8EA6-19E4BFD7BABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信号名" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="147">
   <si>
     <t>BdcWlcmsignal</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -563,6 +563,22 @@
   </si>
   <si>
     <t>delTimer(LGL_SEE_350ms_TimeOut)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEPROM_U8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -903,27 +919,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -931,8 +951,11 @@
         <f>_xlfn.TEXTJOIN(,TRUE,A2,"_SIGNALNUM")</f>
         <v>BdcSeedsignal_SIGNALNUM</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -940,8 +963,11 @@
         <f t="shared" ref="B3:B9" si="0">_xlfn.TEXTJOIN(,TRUE,A3,"_SIGNALNUM")</f>
         <v>BdcWlcmsignal_SIGNALNUM</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -949,8 +975,11 @@
         <f>_xlfn.TEXTJOIN(,TRUE,A4,"_SIGNALNUM")</f>
         <v>DLC_u8TurnLightTwice_SIGNALNUM</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -958,8 +987,11 @@
         <f>_xlfn.TEXTJOIN(,TRUE,A5,"_SIGNALNUM")</f>
         <v>EEP_LOGO_ENABLE_FLAG_SIGNALNUM</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -967,8 +999,11 @@
         <f t="shared" si="0"/>
         <v>EspAutoHoldActvSts_SIGNALNUM</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -976,8 +1011,11 @@
         <f>_xlfn.TEXTJOIN(,TRUE,A7,"_SIGNALNUM")</f>
         <v>PLB_u8LBSts_SIGNALNUM</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -985,8 +1023,11 @@
         <f>_xlfn.TEXTJOIN(,TRUE,A8,"_SIGNALNUM")</f>
         <v>PPL_boolPosnLampSts_SIGNALNUM</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -994,14 +1035,20 @@
         <f t="shared" si="0"/>
         <v>PRM_u8PowerSts_SIGNALNUM</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.TEXTJOIN(,TRUE,A10,"_SIGNALNUM")</f>
         <v>VcuGearPosn_SIGNALNUM</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633A9E27-0015-41EE-AA52-D8A38897C512}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/python/config.xlsx
+++ b/python/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A284A335-03D1-436D-8EA6-19E4BFD7BABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE97E26-1042-454E-92D3-3ED989DBADC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信号名" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="149">
   <si>
     <t>BdcWlcmsignal</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -579,6 +579,14 @@
   </si>
   <si>
     <t>Bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLB_U8LBSTS_EQ_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_Normal_OFF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -921,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1074,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1151,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1120B1-C00A-4D1D-97EB-94F457F81FBD}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -1661,7 +1669,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1737,7 +1745,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1997,7 +2005,7 @@
         <v>61</v>
       </c>
       <c r="L17" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s">
         <v>61</v>
@@ -2050,7 +2058,7 @@
         <v>61</v>
       </c>
       <c r="L18" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="M18" t="s">
         <v>61</v>
@@ -2108,7 +2116,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2264,7 +2272,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2419,7 +2427,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2427,7 +2435,7 @@
     <col min="1" max="1" width="51.33203125" customWidth="1"/>
     <col min="2" max="2" width="78.5546875" customWidth="1"/>
     <col min="3" max="3" width="58.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/python/config.xlsx
+++ b/python/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE97E26-1042-454E-92D3-3ED989DBADC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F8BA31-148B-4216-824F-E784060BE572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信号名" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="161">
   <si>
     <t>BdcWlcmsignal</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -506,10 +506,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Action code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>addTimer(Flag,Time)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -587,6 +583,50 @@
   </si>
   <si>
     <t>LGL_Normal_OFF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action2</t>
+  </si>
+  <si>
+    <t>Condition1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition3</t>
+  </si>
+  <si>
+    <t>Condition4</t>
+  </si>
+  <si>
+    <t>Condition5</t>
+  </si>
+  <si>
+    <t>Condition6</t>
+  </si>
+  <si>
+    <t>Condition7</t>
+  </si>
+  <si>
+    <t>Condition8</t>
+  </si>
+  <si>
+    <t>Action code1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action code2</t>
+  </si>
+  <si>
+    <t>Group</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -948,7 +988,7 @@
         <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,7 +1000,7 @@
         <v>BdcSeedsignal_SIGNALNUM</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -972,7 +1012,7 @@
         <v>BdcWlcmsignal_SIGNALNUM</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -984,7 +1024,7 @@
         <v>DLC_u8TurnLightTwice_SIGNALNUM</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -996,7 +1036,7 @@
         <v>EEP_LOGO_ENABLE_FLAG_SIGNALNUM</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1008,7 +1048,7 @@
         <v>EspAutoHoldActvSts_SIGNALNUM</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,7 +1060,7 @@
         <v>PLB_u8LBSts_SIGNALNUM</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1032,7 +1072,7 @@
         <v>PPL_boolPosnLampSts_SIGNALNUM</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1044,7 +1084,7 @@
         <v>PRM_u8PowerSts_SIGNALNUM</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1056,7 +1096,7 @@
         <v>VcuGearPosn_SIGNALNUM</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1120B1-C00A-4D1D-97EB-94F457F81FBD}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1273,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -1288,7 +1328,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -1745,7 +1785,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1782,12 +1822,42 @@
     <col min="30" max="30" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1798,7 +1868,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1809,7 +1879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1823,10 +1893,10 @@
         <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1843,7 +1913,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1860,7 +1930,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1877,7 +1947,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1894,7 +1964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1905,10 +1975,10 @@
         <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1919,7 +1989,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1930,7 +2000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1941,36 +2011,36 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1987,7 +2057,7 @@
         <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
         <v>61</v>
@@ -2005,7 +2075,7 @@
         <v>61</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M17" t="s">
         <v>61</v>
@@ -2023,7 +2093,7 @@
         <v>61</v>
       </c>
       <c r="R17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2058,7 +2128,7 @@
         <v>61</v>
       </c>
       <c r="L18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M18" t="s">
         <v>61</v>
@@ -2076,7 +2146,7 @@
         <v>61</v>
       </c>
       <c r="R18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2091,13 +2161,13 @@
           <x14:formula1>
             <xm:f>Condition宏定义!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>H17:H18 J17:J18 L17:L18 N17:N18 P17:P18 T17 D1 F2:F18 V17 X17 Z17 AB17 AD17 D19:D1048576</xm:sqref>
+          <xm:sqref>H17:H18 J17:J18 L17:L18 N17:N18 P17:P18 T17 D1 F1:F18 V17 X17 Z17 AB17 AD17 D19:D1048576 H1 L1 P1 J1 N1 R1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" xr:uid="{B9020A15-13E9-4127-ABB3-44DD4A06E58F}">
           <x14:formula1>
             <xm:f>Condition宏定义!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>B19:B1048576 B1 D17:D18 D2:D12 C13:C16</xm:sqref>
+          <xm:sqref>B19:B1048576 B1:C1 D17:D18 D2:D12 C13:C16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{C232527D-E590-4E1B-9B3E-3B15A0BAB79C}">
           <x14:formula1>
@@ -2258,7 +2328,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2426,8 +2496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633A9E27-0015-41EE-AA52-D8A38897C512}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2439,11 +2509,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
       <c r="B1" t="s">
         <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2476,10 +2552,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
         <v>129</v>
-      </c>
-      <c r="C4" t="s">
-        <v>130</v>
       </c>
       <c r="D4" t="s">
         <v>124</v>
@@ -2487,13 +2563,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
         <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/python/config.xlsx
+++ b/python/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F8BA31-148B-4216-824F-E784060BE572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F93A9E-723B-4067-9D09-5B40CCA020F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信号名" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="常量宏定义" sheetId="7" r:id="rId7"/>
     <sheet name="Action" sheetId="9" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">条件!$A$1:$F$26</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="167">
   <si>
     <t>BdcWlcmsignal</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -119,18 +122,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>信号名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>运算符号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阈值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CHANGETO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -150,14 +141,6 @@
     <t>CHANGETO</t>
   </si>
   <si>
-    <t>标志位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间(*10ms)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>INVALID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -269,10 +252,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#define</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BDCSEEDSIGNAL_NEQ_0</t>
   </si>
   <si>
@@ -341,14 +320,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>符号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宏定义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>LGL_SEE_OFF</t>
   </si>
   <si>
@@ -628,6 +599,61 @@
   <si>
     <t>Group</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symbol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Threshold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time(*10ms)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlagName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANGE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignalName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_Normal_OFF1()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_Normal_OFF2()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONDITION_TYPE_NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONDITION_TYPE_SIGNAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLC_u8TurnLightTwice_SIGNALNUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCUGEARPOSN_NEQ_DLC_U8TURNLIGHTTWICE_SIGNALNUM</t>
   </si>
 </sst>
 </file>
@@ -682,10 +708,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,7 +996,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -982,13 +1008,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1000,7 +1026,7 @@
         <v>BdcSeedsignal_SIGNALNUM</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1012,7 +1038,7 @@
         <v>BdcWlcmsignal_SIGNALNUM</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1024,7 +1050,7 @@
         <v>DLC_u8TurnLightTwice_SIGNALNUM</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1036,19 +1062,19 @@
         <v>EEP_LOGO_ENABLE_FLAG_SIGNALNUM</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>EspAutoHoldActvSts_SIGNALNUM</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1060,7 +1086,7 @@
         <v>PLB_u8LBSts_SIGNALNUM</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,7 +1098,7 @@
         <v>PPL_boolPosnLampSts_SIGNALNUM</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,19 +1110,19 @@
         <v>PRM_u8PowerSts_SIGNALNUM</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.TEXTJOIN(,TRUE,A10,"_SIGNALNUM")</f>
         <v>VcuGearPosn_SIGNALNUM</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1111,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540B6D7C-977B-49B8-BF10-5A57D816EA73}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1125,10 +1151,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,12 +1207,17 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1197,506 +1228,612 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1120B1-C00A-4D1D-97EB-94F457F81FBD}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" customWidth="1"/>
-    <col min="5" max="5" width="37.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
+        <v>159</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F26" si="0">UPPER(_xlfn.TEXTJOIN("_",TRUE,A2:C2))</f>
+        <v>BDCSEEDSIGNAL_NEQ_0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="str">
-        <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,A2:C2))</f>
-        <v>BDCSEEDSIGNAL_NEQ_0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>BDCSEEDSIGNAL_CHANGETO_0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E26" si="0">UPPER(_xlfn.TEXTJOIN("_",TRUE,A3:C3))</f>
-        <v>BDCSEEDSIGNAL_CHANGETO_0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
       <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="str">
+        <v>163</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>BDCSEEDSIGNAL_EQ_0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="str">
+        <v>163</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>BDCWLCMSIGNAL_NEQ_0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" t="str">
+        <v>163</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>BDCWLCMSIGNAL_EQ_0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>132</v>
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="str">
+        <v>163</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>DLC_U8TURNLIGHTTWICE_CHANGE_0XFF</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="str">
+        <v>163</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>EEP_LOGO_ENABLE_FLAG_EQ_1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="4">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="str">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>EEP_LOGO_ENABLE_FLAG_CHANGETO_0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="str">
+        <v>163</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>EEP_LOGO_ENABLE_FLAG_EQ_0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="str">
+        <v>163</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>ESPAUTOHOLDACTVSTS_EQ_0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="str">
+        <v>163</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>ESPAUTOHOLDACTVSTS_EQ_1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="4">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="str">
+        <v>163</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>ESPAUTOHOLDACTVSTS_EQ_1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="str">
+        <v>163</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>PLB_U8LBSTS_EQ_0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="4">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" t="str">
+        <v>163</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>PLB_U8LBSTS_EQ_1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="str">
+        <v>163</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>PLB_U8LBSTS_EQ_1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="str">
+        <v>163</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>PPL_BOOLPOSNLAMPSTS_EQ_0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" t="str">
+        <v>163</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>PPL_BOOLPOSNLAMPSTS_EQ_1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="str">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>PPL_BOOLPOSNLAMPSTS_EQ_1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="4">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="str">
+        <v>163</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>PRM_U8POWERSTS_EQ_2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="str">
+        <v>163</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>PRM_U8POWERSTS_CHANGETO_1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="4">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="str">
+        <v>163</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>PRM_U8POWERSTS_CHANGETO_0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" t="str">
+        <v>163</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>PRM_U8POWERSTS_EQ_0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" t="str">
+      <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>VCUGEARPOSN_EQ_0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="4">
+        <v>22</v>
+      </c>
+      <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="str">
+        <v>163</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>VCUGEARPOSN_EQ_1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4">
+        <v>22</v>
+      </c>
+      <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="str">
+        <v>163</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>VCUGEARPOSN_EQ_1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" t="str">
+        <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,A27:C27))</f>
+        <v>VCUGEARPOSN_NEQ_DLC_U8TURNLIGHTTWICE_SIGNALNUM</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0AC66F64-470F-43E2-9E31-F594A47AB981}">
-          <x14:formula1>
-            <xm:f>运算符号!$B$2:$B$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E73327E-3ECC-49FE-8285-15C01B974A10}">
           <x14:formula1>
             <xm:f>信号名!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
+          <xm:sqref>A2:A27 A29:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0AC66F64-470F-43E2-9E31-F594A47AB981}">
+          <x14:formula1>
+            <xm:f>运算符号!$B$2:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" xr:uid="{C4D710BA-5A0D-4C76-ACBD-7A041C4C8E9C}">
+          <x14:formula1>
+            <xm:f>信号名!$A$2:$A$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>A28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1708,9 +1845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E76F4C-C243-4863-B158-8D4DC4ED5D8F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1721,57 +1856,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>35</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>85</v>
+      <c r="C2" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>35</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>86</v>
+      <c r="C3" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>35</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>87</v>
+      <c r="C4" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>150</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>88</v>
+      <c r="C5" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1782,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1D1207-510C-49D8-9B1E-ED39AAD8BCA7}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1824,329 +1959,340 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
+      <c r="R1" t="s">
         <v>149</v>
-      </c>
-      <c r="D1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N1" t="s">
-        <v>155</v>
-      </c>
-      <c r="P1" t="s">
-        <v>156</v>
-      </c>
-      <c r="R1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
         <v>61</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" t="s">
-        <v>146</v>
-      </c>
-      <c r="M17" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" t="s">
-        <v>113</v>
-      </c>
-      <c r="O17" t="s">
-        <v>61</v>
-      </c>
-      <c r="P17" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R17" t="s">
-        <v>136</v>
+        <v>161</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" t="s">
+        <v>105</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>76</v>
       </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" t="s">
-        <v>77</v>
-      </c>
-      <c r="K18" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" t="s">
-        <v>146</v>
-      </c>
-      <c r="M18" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18" t="s">
-        <v>113</v>
-      </c>
-      <c r="O18" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" t="s">
-        <v>136</v>
+      <c r="B19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2161,19 +2307,19 @@
           <x14:formula1>
             <xm:f>Condition宏定义!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>H17:H18 J17:J18 L17:L18 N17:N18 P17:P18 T17 D1 F1:F18 V17 X17 Z17 AB17 AD17 D19:D1048576 H1 L1 P1 J1 N1 R1</xm:sqref>
+          <xm:sqref>H18:H19 J18:J19 L18:L19 N18:N19 P18:P19 T18 D1 V18 X18 Z18 AB18 AD18 D20:D1048576 H1 L1 P1 J1 N1 R1 F18:F19 F1:F16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" xr:uid="{B9020A15-13E9-4127-ABB3-44DD4A06E58F}">
           <x14:formula1>
             <xm:f>Condition宏定义!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>B19:B1048576 B1:C1 D17:D18 D2:D12 C13:C16</xm:sqref>
+          <xm:sqref>B20:B1048576 B1:C1 D18:D19 D2:D12 C13:C16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{C232527D-E590-4E1B-9B3E-3B15A0BAB79C}">
           <x14:formula1>
             <xm:f>Condition宏定义!$A$2:$A$27</xm:f>
           </x14:formula1>
-          <xm:sqref>R17:R18</xm:sqref>
+          <xm:sqref>R18:R19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2183,21 +2329,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A47FA64-BB90-4D6F-A7F6-CB03803FCD7C}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A25"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="54.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2328,7 +2474,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2352,138 +2503,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2496,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633A9E27-0015-41EE-AA52-D8A38897C512}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2510,16 +2661,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2527,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,35 +2692,35 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/python/config.xlsx
+++ b/python/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\py\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F93A9E-723B-4067-9D09-5B40CCA020F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C41D571-6D14-46FA-BDA7-2D2C7D169AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信号名" sheetId="1" r:id="rId1"/>
@@ -682,12 +682,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -702,16 +714,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,132 +1012,132 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>159</v>
       </c>
       <c r="B1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="str">
         <f>_xlfn.TEXTJOIN(,TRUE,A2,"_SIGNALNUM")</f>
         <v>BdcSeedsignal_SIGNALNUM</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B9" si="0">_xlfn.TEXTJOIN(,TRUE,A3,"_SIGNALNUM")</f>
         <v>BdcWlcmsignal_SIGNALNUM</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="str">
         <f>_xlfn.TEXTJOIN(,TRUE,A4,"_SIGNALNUM")</f>
         <v>DLC_u8TurnLightTwice_SIGNALNUM</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="str">
         <f>_xlfn.TEXTJOIN(,TRUE,A5,"_SIGNALNUM")</f>
         <v>EEP_LOGO_ENABLE_FLAG_SIGNALNUM</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>EspAutoHoldActvSts_SIGNALNUM</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="str">
         <f>_xlfn.TEXTJOIN(,TRUE,A7,"_SIGNALNUM")</f>
         <v>PLB_u8LBSts_SIGNALNUM</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="str">
         <f>_xlfn.TEXTJOIN(,TRUE,A8,"_SIGNALNUM")</f>
         <v>PPL_boolPosnLampSts_SIGNALNUM</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>PRM_u8PowerSts_SIGNALNUM</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.TEXTJOIN(,TRUE,A10,"_SIGNALNUM")</f>
         <v>VcuGearPosn_SIGNALNUM</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1140,17 +1156,17 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B1" t="s">
@@ -1158,7 +1174,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -1166,7 +1182,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -1174,7 +1190,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -1182,7 +1198,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
@@ -1190,7 +1206,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
@@ -1198,7 +1214,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
@@ -1230,34 +1246,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1120B1-C00A-4D1D-97EB-94F457F81FBD}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F1" t="s">
@@ -1265,19 +1281,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F2" t="str">
@@ -1286,19 +1302,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F3" t="str">
@@ -1307,19 +1323,19 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F4" t="str">
@@ -1328,19 +1344,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F5" t="str">
@@ -1349,19 +1365,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>139</v>
       </c>
       <c r="F6" t="str">
@@ -1370,19 +1386,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F7" t="str">
@@ -1391,19 +1407,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F8" t="str">
@@ -1412,19 +1428,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="8">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F9" t="str">
@@ -1433,19 +1449,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F10" t="str">
@@ -1454,19 +1470,19 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="8">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F11" t="str">
@@ -1475,19 +1491,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F12" t="str">
@@ -1496,19 +1512,19 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F13" t="str">
@@ -1517,19 +1533,19 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F14" t="str">
@@ -1538,19 +1554,19 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="8">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F15" t="str">
@@ -1559,19 +1575,19 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F16" t="str">
@@ -1580,19 +1596,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="8">
         <v>0</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F17" t="str">
@@ -1601,19 +1617,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F18" t="str">
@@ -1622,19 +1638,19 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F19" t="str">
@@ -1643,19 +1659,19 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="8">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F20" t="str">
@@ -1664,19 +1680,19 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="8">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>51</v>
       </c>
       <c r="F21" t="str">
@@ -1685,19 +1701,19 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="8">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F22" t="str">
@@ -1706,19 +1722,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="8">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F23" t="str">
@@ -1727,19 +1743,19 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="8">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F24" t="str">
@@ -1748,19 +1764,19 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="8">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F25" t="str">
@@ -1769,19 +1785,19 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="8">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F26" t="str">
@@ -1790,19 +1806,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F27" t="str">
@@ -1817,23 +1833,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0E73327E-3ECC-49FE-8285-15C01B974A10}">
-          <x14:formula1>
-            <xm:f>信号名!$A$2:$A$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A27 A29:A1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0AC66F64-470F-43E2-9E31-F594A47AB981}">
           <x14:formula1>
             <xm:f>运算符号!$B$2:$B$10</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" xr:uid="{C4D710BA-5A0D-4C76-ACBD-7A041C4C8E9C}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D4FD5A9-96C9-4249-A687-708DBE9FC2E5}">
           <x14:formula1>
-            <xm:f>信号名!$A$2:$A$10</xm:f>
+            <xm:f>信号名!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>A28</xm:sqref>
+          <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{84E91702-C560-4A9A-A0F8-27F24BBFB4E6}">
+          <x14:formula1>
+            <xm:f>信号名!$B:$B</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1845,67 +1861,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E76F4C-C243-4863-B158-8D4DC4ED5D8F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>35</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>35</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>150</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1920,29 +1938,29 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="52.77734375" customWidth="1"/>
-    <col min="4" max="4" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.44140625" customWidth="1"/>
-    <col min="18" max="18" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" style="4" customWidth="1"/>
+    <col min="3" max="3" width="52.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="39.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.44140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="26.6640625" style="4" customWidth="1"/>
     <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5.5546875" bestFit="1" customWidth="1"/>
@@ -1958,340 +1976,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O18" t="s">
+      <c r="O18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R18" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O19" t="s">
+      <c r="O19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2332,153 +2350,153 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.77734375" customWidth="1"/>
+    <col min="1" max="1" width="54.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A2:'条件'!C2))</f>
         <v>BDCSEEDSIGNAL_NEQ_0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+      <c r="A3" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A3:'条件'!C3))</f>
         <v>BDCSEEDSIGNAL_CHANGETO_0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+      <c r="A4" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A4:'条件'!C4))</f>
         <v>BDCSEEDSIGNAL_EQ_0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+      <c r="A5" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A5:'条件'!C5))</f>
         <v>BDCWLCMSIGNAL_NEQ_0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+      <c r="A6" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A6:'条件'!C6))</f>
         <v>BDCWLCMSIGNAL_EQ_0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+      <c r="A7" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A7:'条件'!C7))</f>
         <v>DLC_U8TURNLIGHTTWICE_CHANGE_0XFF</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+      <c r="A8" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A8:'条件'!C8))</f>
         <v>EEP_LOGO_ENABLE_FLAG_EQ_1</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+      <c r="A9" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A9:'条件'!C9))</f>
         <v>EEP_LOGO_ENABLE_FLAG_CHANGETO_0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+      <c r="A10" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A10:'条件'!C10))</f>
         <v>EEP_LOGO_ENABLE_FLAG_EQ_0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+      <c r="A11" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A11:'条件'!C11))</f>
         <v>ESPAUTOHOLDACTVSTS_EQ_0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+      <c r="A12" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A12:'条件'!C12))</f>
         <v>ESPAUTOHOLDACTVSTS_EQ_1</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+      <c r="A13" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A14:'条件'!C14))</f>
         <v>PLB_U8LBSTS_EQ_0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+      <c r="A14" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A15:'条件'!C15))</f>
         <v>PLB_U8LBSTS_EQ_1</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+      <c r="A15" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A17:'条件'!C17))</f>
         <v>PPL_BOOLPOSNLAMPSTS_EQ_0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+      <c r="A16" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A18:'条件'!C18))</f>
         <v>PPL_BOOLPOSNLAMPSTS_EQ_1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+      <c r="A17" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A20:'条件'!C20))</f>
         <v>PRM_U8POWERSTS_EQ_2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
+      <c r="A18" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A21:'条件'!C21))</f>
         <v>PRM_U8POWERSTS_CHANGETO_1</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
+      <c r="A19" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A22:'条件'!C22))</f>
         <v>PRM_U8POWERSTS_CHANGETO_0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
+      <c r="A20" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A23:'条件'!C23))</f>
         <v>PRM_U8POWERSTS_EQ_0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
+      <c r="A21" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A24:'条件'!C24))</f>
         <v>VCUGEARPOSN_EQ_0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
+      <c r="A22" s="4" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A25:'条件'!C25))</f>
         <v>VCUGEARPOSN_EQ_1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2493,7 +2511,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2647,79 +2665,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633A9E27-0015-41EE-AA52-D8A38897C512}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1"/>
-    <col min="2" max="2" width="78.5546875" customWidth="1"/>
-    <col min="3" max="3" width="58.88671875" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="1" max="1" width="51.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="78.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="58.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="40" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>122</v>
       </c>
     </row>

--- a/python/config.xlsx
+++ b/python/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\py\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C41D571-6D14-46FA-BDA7-2D2C7D169AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC324877-7CAD-4FBF-A83F-8E2C4F8B621E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信号名" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Condition宏定义" sheetId="6" r:id="rId6"/>
     <sheet name="常量宏定义" sheetId="7" r:id="rId7"/>
     <sheet name="Action" sheetId="9" r:id="rId8"/>
+    <sheet name="Init" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">条件!$A$1:$F$26</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="179">
   <si>
     <t>BdcWlcmsignal</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -654,6 +655,54 @@
   </si>
   <si>
     <t>VCUGEARPOSN_NEQ_DLC_U8TURNLIGHTTWICE_SIGNALNUM</t>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>output1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>output2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>output3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>output4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>output5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>output6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>output7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -714,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -728,6 +777,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,7 +1067,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1085,7 @@
         <v>155</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1247,7 +1302,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2405,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2511,7 +2566,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2665,8 +2720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633A9E27-0015-41EE-AA52-D8A38897C512}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2745,4 +2800,114 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F568BE90-5156-4D6C-B752-5586F6C25C78}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="10">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="10">
+        <v>10233333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="10">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/python/config.xlsx
+++ b/python/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC324877-7CAD-4FBF-A83F-8E2C4F8B621E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0D562E-2518-4744-96DF-2C7E6AFA8ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <sheet name="Init" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Condition宏定义!$A$2:$A$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">条件!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="178">
   <si>
     <t>BdcWlcmsignal</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -652,9 +653,6 @@
   <si>
     <t>DLC_u8TurnLightTwice_SIGNALNUM</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCUGEARPOSN_NEQ_DLC_U8TURNLIGHTTWICE_SIGNALNUM</t>
   </si>
   <si>
     <t>Value</t>
@@ -709,7 +707,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,6 +723,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -763,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -784,6 +789,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1302,7 +1308,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1993,7 +1999,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2402,157 +2408,224 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A47FA64-BB90-4D6F-A7F6-CB03803FCD7C}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="54.77734375" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="str">
+      <c r="A2" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A2:'条件'!C2))</f>
         <v>BDCSEEDSIGNAL_NEQ_0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="str">
+      <c r="A3" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A3:'条件'!C3))</f>
         <v>BDCSEEDSIGNAL_CHANGETO_0</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A4:'条件'!C4))</f>
         <v>BDCSEEDSIGNAL_EQ_0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="str">
+      <c r="A5" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A5:'条件'!C5))</f>
         <v>BDCWLCMSIGNAL_NEQ_0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="str">
+      <c r="A6" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A6:'条件'!C6))</f>
         <v>BDCWLCMSIGNAL_EQ_0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="str">
+      <c r="A7" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A7:'条件'!C7))</f>
         <v>DLC_U8TURNLIGHTTWICE_CHANGE_0XFF</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="str">
+      <c r="A8" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A8:'条件'!C8))</f>
         <v>EEP_LOGO_ENABLE_FLAG_EQ_1</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="str">
+      <c r="A9" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A9:'条件'!C9))</f>
         <v>EEP_LOGO_ENABLE_FLAG_CHANGETO_0</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="str">
+      <c r="A10" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A10:'条件'!C10))</f>
         <v>EEP_LOGO_ENABLE_FLAG_EQ_0</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str">
+      <c r="A11" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A11:'条件'!C11))</f>
         <v>ESPAUTOHOLDACTVSTS_EQ_0</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str">
+      <c r="A12" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A12:'条件'!C12))</f>
         <v>ESPAUTOHOLDACTVSTS_EQ_1</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str">
+      <c r="A13" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A14:'条件'!C14))</f>
         <v>PLB_U8LBSTS_EQ_0</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str">
+      <c r="A14" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A15:'条件'!C15))</f>
         <v>PLB_U8LBSTS_EQ_1</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="str">
+      <c r="A15" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A17:'条件'!C17))</f>
         <v>PPL_BOOLPOSNLAMPSTS_EQ_0</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="str">
+      <c r="A16" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A18:'条件'!C18))</f>
         <v>PPL_BOOLPOSNLAMPSTS_EQ_1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="str">
+      <c r="A17" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A20:'条件'!C20))</f>
         <v>PRM_U8POWERSTS_EQ_2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="str">
+      <c r="A18" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A21:'条件'!C21))</f>
         <v>PRM_U8POWERSTS_CHANGETO_1</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="str">
+      <c r="A19" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A22:'条件'!C22))</f>
         <v>PRM_U8POWERSTS_CHANGETO_0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="str">
+      <c r="A20" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A23:'条件'!C23))</f>
         <v>PRM_U8POWERSTS_EQ_0</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="str">
+      <c r="A21" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A24:'条件'!C24))</f>
         <v>VCUGEARPOSN_EQ_0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="str">
+      <c r="A22" s="12" t="str">
         <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A25:'条件'!C25))</f>
         <v>VCUGEARPOSN_EQ_1</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="12" t="str">
+        <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A27:'条件'!C27))</f>
+        <v>VCUGEARPOSN_NEQ_DLC_U8TURNLIGHTTWICE_SIGNALNUM</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>166</v>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="str">
+        <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A29:'条件'!C29))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="str">
+        <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A30:'条件'!C30))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="str">
+        <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A31:'条件'!C31))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="str">
+        <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A32:'条件'!C32))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="str">
+        <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A33:'条件'!C33))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="str">
+        <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A34:'条件'!C34))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="str">
+        <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A35:'条件'!C35))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="str">
+        <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A36:'条件'!C36))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="str">
+        <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A37:'条件'!C37))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="str">
+        <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A38:'条件'!C38))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="str">
+        <f>UPPER(_xlfn.TEXTJOIN("_",TRUE,条件!A39:'条件'!C39))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2720,8 +2793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633A9E27-0015-41EE-AA52-D8A38897C512}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2807,7 +2880,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2826,12 +2899,12 @@
         <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
         <v>136</v>
@@ -2842,7 +2915,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
         <v>135</v>
@@ -2853,10 +2926,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C4" s="10">
         <v>16</v>
@@ -2864,10 +2937,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="10">
         <v>5.4</v>
@@ -2875,21 +2948,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>137</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" t="s">
         <v>176</v>
-      </c>
-      <c r="B7" t="s">
-        <v>177</v>
       </c>
       <c r="C7" s="10">
         <v>10233333</v>
@@ -2897,7 +2970,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
         <v>134</v>

--- a/python/config.xlsx
+++ b/python/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0D562E-2518-4744-96DF-2C7E6AFA8ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904ECCCF-2EF7-4999-A175-7CEFEC92AF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="627" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信号名" sheetId="1" r:id="rId1"/>
@@ -535,10 +535,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>uint8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -700,6 +696,10 @@
   </si>
   <si>
     <t>output7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1085,13 +1085,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,7 +1103,7 @@
         <v>BdcSeedsignal_SIGNALNUM</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1115,7 +1115,7 @@
         <v>BdcWlcmsignal_SIGNALNUM</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
         <v>DLC_u8TurnLightTwice_SIGNALNUM</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1139,7 +1139,7 @@
         <v>EEP_LOGO_ENABLE_FLAG_SIGNALNUM</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
         <v>EspAutoHoldActvSts_SIGNALNUM</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1163,7 +1163,7 @@
         <v>PLB_u8LBSts_SIGNALNUM</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1175,7 +1175,7 @@
         <v>PPL_boolPosnLampSts_SIGNALNUM</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1187,7 +1187,7 @@
         <v>PRM_u8PowerSts_SIGNALNUM</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>VcuGearPosn_SIGNALNUM</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1228,10 +1228,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,22 +1323,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>38</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>54</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>40</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>39</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -1457,7 +1457,7 @@
         <v>124</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>41</v>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>43</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>44</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>40</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>40</v>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>45</v>
@@ -1583,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>46</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>40</v>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>47</v>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>46</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>48</v>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>45</v>
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>50</v>
@@ -1730,7 +1730,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>42</v>
@@ -1751,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>51</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>52</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>40</v>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>40</v>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>53</v>
@@ -1856,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>49</v>
@@ -1874,10 +1874,10 @@
         <v>21</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>40</v>
@@ -1935,10 +1935,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>37</v>
@@ -2041,34 +2041,34 @@
         <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -2262,10 +2262,10 @@
         <v>48</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2300,7 +2300,7 @@
         <v>56</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>56</v>
@@ -2353,7 +2353,7 @@
         <v>56</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>56</v>
@@ -2807,16 +2807,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2879,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F568BE90-5156-4D6C-B752-5586F6C25C78}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2893,21 +2893,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="s">
         <v>159</v>
       </c>
-      <c r="B1" t="s">
-        <v>160</v>
-      </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="10">
         <v>5</v>
@@ -2915,10 +2915,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="10">
         <v>3</v>
@@ -2926,10 +2926,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C4" s="10">
         <v>16</v>
@@ -2937,10 +2937,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="10">
         <v>5.4</v>
@@ -2948,21 +2948,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" t="s">
         <v>175</v>
-      </c>
-      <c r="B7" t="s">
-        <v>176</v>
       </c>
       <c r="C7" s="10">
         <v>10233333</v>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" t="s">
         <v>177</v>
-      </c>
-      <c r="B8" t="s">
-        <v>134</v>
       </c>
       <c r="C8" s="10">
         <v>45</v>
